--- a/frontend/public/templates/실적_데이터_운송정보.xlsx
+++ b/frontend/public/templates/실적_데이터_운송정보.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdhg\Desktop\greensteel-main\greensteel-main\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EC2EFB4-12B7-4549-BC55-50FA90848230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6313AD-A34E-4BA3-98CF-AF2F6A30B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14475" windowHeight="10605" xr2:uid="{03A5FA48-4F4E-4882-B053-0569CE1C8E51}"/>
+    <workbookView xWindow="-25455" yWindow="3180" windowWidth="18210" windowHeight="11295" xr2:uid="{53ABBC93-B59F-4572-BFBA-C634AD0D59E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="그리드(공정데이터)" sheetId="1" r:id="rId1"/>
+    <sheet name="그리드(운송정보)" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +30,7 @@
     <author>bitcamp</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4717C782-EDF0-4976-AABC-0FF724CEADAD}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D400B695-A4BE-49F6-9C18-C56EE3620709}">
       <text>
         <r>
           <rPr>
@@ -439,6 +430,241 @@
             <charset val="129"/>
           </rPr>
           <t>추측</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{24C92817-266A-44C2-8751-F9B0FD107764}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bitcamp:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나와있으나</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표준</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>용이하게</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기위해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표기</t>
         </r>
       </text>
     </comment>
@@ -447,13 +673,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>분철광석과 부원료 (생석회, 석회석, 규사 등)을 활용하여…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소결공정</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+  <si>
+    <t>로트번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코크스 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -461,11 +687,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점성탄을 재료로 하여 코크스를 생산하며…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코크스 오븐</t>
+    <t>코크스 생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점결탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,19 +707,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공정 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부공정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산제품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공정명</t>
+    <t>석회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송 물질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착 공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토페토카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코크스 생산 공정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트럭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,14 +780,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -531,6 +793,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -576,17 +846,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,73 +1175,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4873C86C-90C9-4068-899B-1B88917BD032}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF78A0A-4AAA-43AD-AC9E-9D1724699722}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45870</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45871</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45871</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45871</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/frontend/public/templates/실적_데이터_운송정보.xlsx
+++ b/frontend/public/templates/실적_데이터_운송정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdhg\Desktop\greensteel-main\greensteel-main\frontend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdhg\Desktop\greensteel-main\greensteel\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6313AD-A34E-4BA3-98CF-AF2F6A30B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690251F-B3D2-4FEC-B5F6-0C14B7731D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25455" yWindow="3180" windowWidth="18210" windowHeight="11295" xr2:uid="{53ABBC93-B59F-4572-BFBA-C634AD0D59E1}"/>
+    <workbookView xWindow="7215" yWindow="1860" windowWidth="18210" windowHeight="11295" xr2:uid="{53ABBC93-B59F-4572-BFBA-C634AD0D59E1}"/>
   </bookViews>
   <sheets>
     <sheet name="그리드(운송정보)" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>bitcamp</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D400B695-A4BE-49F6-9C18-C56EE3620709}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D400B695-A4BE-49F6-9C18-C56EE3620709}">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{24C92817-266A-44C2-8751-F9B0FD107764}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{24C92817-266A-44C2-8751-F9B0FD107764}">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>로트번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,14 @@
   </si>
   <si>
     <t>트럭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문처명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,146 +1184,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF78A0A-4AAA-43AD-AC9E-9D1724699722}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>45870</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>45871</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>45871</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>45871</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
